--- a/results/I3_N5_M2_T30_C150_DepCentral_s3_P1_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>936.2352782685708</v>
+        <v>1571.518995610193</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.08999080920084</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.43422928288365</v>
+        <v>13.29756500142714</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.06951674225463</v>
+        <v>4.961708535750589</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>667.8699999999991</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.64</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.4627824732683</v>
+        <v>15.79579898937523</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.35722294236247</v>
+        <v>12.69023945846941</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.38795072015897</v>
+        <v>23.61797899241786</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.943331445828008</v>
+        <v>10.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22.62482380361045</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1133,9 +1133,51 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>168.8700000000001</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>176.2299999999996</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1302,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>169.55</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>181.7</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>181.4250000000002</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>114.8600000000005</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>122.43</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>112.7550000000005</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>128.4300000000005</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>126.25</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>214.47</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>214.9549999999995</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>211.945</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>219.875</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>222.69</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.2050000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.1900000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000000029</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58500000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>36.35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>32.46500000000073</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.61000000000072</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>41.73500000000072</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.29500000000073</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>214.47</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>214.9549999999995</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>211.945</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1588,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>219.875</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>222.69</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>67.32000000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>76.2050000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>81.1900000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>70.59000000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>74.58500000000029</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>64.47</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>64.9549999999995</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>61.94500000000002</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>69.875</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1745,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>72.69</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -1805,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1869,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1946,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1970,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +2045,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>9.625</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>12.98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2100,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>13.585</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>8.205</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2165,10 +2207,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2176,10 +2218,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2187,10 +2229,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2201,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2212,9 +2254,42 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
